--- a/CampusTestCases.xlsx
+++ b/CampusTestCases.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="337">
   <si>
     <t>Test case ID</t>
   </si>
@@ -32,17 +32,49 @@
     <t>Precondition</t>
   </si>
   <si>
-    <t>Steps:</t>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Expected result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>CAM_02_TC_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin User should be able to add "Position Category".
+</t>
+  </si>
+  <si>
+    <t>Positive Test Case</t>
+  </si>
+  <si>
+    <t>https://test.mersys.io/position-category/list</t>
+  </si>
+  <si>
+    <t>The admin user must have logged in the website.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Given Navigate to Campus
+    When Enter username and password and click button
+    Then User should login successfully                                                                                                                                                                                                                  When User clicks on humanResources
+    And selects setup
+    And clicks on position categories
+    And clicks on add position categories
+    And enters position category
+    And clicks on save button
+    Then Position Category successfully created message is displayed</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">"A valid username"
 </t>
     </r>
@@ -50,7 +82,6 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
@@ -58,9 +89,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
@@ -72,7 +101,6 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
@@ -80,9 +108,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
@@ -93,127 +119,6 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Url </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://test.mersys.io/</t>
-    </r>
-  </si>
-  <si>
-    <t>Expected result</t>
-  </si>
-  <si>
-    <t>Actual Result</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>CAM_02_TC_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admin User should be able to add "Position Category".
-</t>
-  </si>
-  <si>
-    <t>Positive Test Case</t>
-  </si>
-  <si>
-    <t>https://test.mersys.io/position-category/list</t>
-  </si>
-  <si>
-    <t>The admin user must have logged in the website.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Given Navigate to Campus
-    When Enter username and password and click button
-    Then User should login successfully                                                                                                                                                                                                                  When User clicks on humanResources
-    And selects setup
-    And clicks on position categories
-    And clicks on add position categories
-    And enters position category
-    And clicks on save button
-    Then Position Category successfully created message is displayed</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">"A valid username"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Username</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> : turkeyts
-"A valid password"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Password </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: TechnoStudy123
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
@@ -222,7 +127,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
@@ -232,7 +136,6 @@
       <rPr>
         <u/>
         <sz val="12"/>
-        <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
@@ -273,12 +176,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">"A valid username"
 Username : turkeyts
 "A valid password"
@@ -289,7 +186,6 @@
       <rPr>
         <u/>
         <sz val="12"/>
-        <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
@@ -386,91 +282,10 @@
     <t>As an admin user, I shoud be able to add an attestation under sections Human Resources&gt;Setup&gt;Attestations on the left navigation menu</t>
   </si>
   <si>
-    <t xml:space="preserve">1. In the login Panel, enter the username and password then click login button
-2. On left navigation menu, click Human Resources menu   
-3. On left navigation menu, click setup menu                                                          4. On left navigation menu, click Attestations menu                                                5. On existing page, click add button                                                                          6.  Write a name of the attestation in the dialog box and then click save button 7. Verify the display of  messsage 'Attestation successfully created' </t>
-  </si>
-  <si>
-    <t>Url : https://test.mersys.io/      Username: turkeyts  Password : TechnoStudy123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A success message, 'Attestation successfully created' should be displayed on the screen and the attestation should be added to the system
-</t>
-  </si>
-  <si>
-    <t>A success message is displayed on the screen as expected</t>
-  </si>
-  <si>
-    <t>CAM_03_TC_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The attempt to add an attestation with the same name as one written in test case CAM_03_TC_01 should not be possible and thus the page should pop up a warning  screen that indicates "The attestation with name "" already exists" </t>
-  </si>
-  <si>
-    <t>Admin should have already created a new bank account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. In the login Panel, enter the username and password then click login button
-2. On left navigation menu, click Human Resources menu   
-3. On left navigation menu, click setup menu                                                          4. On left navigation menu, click Attestations menu                                                5. On existing page, click add button                                                                          6.  Write the same name of the attestation written in test case CAM_03_TC_01 in the dialog box and then click save button                                  7. Verify the display of  messsage ' The attestation with name "" already exists' </t>
-  </si>
-  <si>
-    <t xml:space="preserve">An Error message should be displayed on the screen that says 'the attestation with name "" already exists'
-</t>
-  </si>
-  <si>
-    <t>CAM_03_TC_03</t>
-  </si>
-  <si>
-    <t>As an admin user, I should be able to edit the name of the attestation under sections Human Resources&gt;Setup&gt;Attestations on the left navigation menu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. In the login Panel, enter the username and password then click login button
-2. On left navigation menu, click Human Resources menu   
-3. On left navigation menu, click setup menu                                                          4. On left navigation menu, click Attestations menu                                                5. On existing page, click search inbox and type the name of the attestation already written in test case CAM_03_TC_01 and click search button                                                                                6. Click edit button and upadate the name of the attestion displayed on the dialog box and click save button                                                                                  7. Verify the display of  messsage 'Attestation successfully updated' </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A success message of 'Attestation successfully updated should be displayed on the screen
-</t>
-  </si>
-  <si>
-    <t>The name of the attestation is successfully updated and the message is displayed that indicates 'Attestation successfully updated'</t>
-  </si>
-  <si>
-    <t>CAM_03_TC_04</t>
-  </si>
-  <si>
-    <t>As an admin user, I should be able to delete the already added attestations under sections Human Resources&gt;Setup&gt;Attestations on the left navigation menu</t>
-  </si>
-  <si>
-    <t>Admin should have already deleted the bank account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. In the login Panel, enter the username and password then click login button
-2. On left navigation menu, click Human Resources menu   
-3. On left navigation menu, click setup menu                                                          4. On left navigation menu, click Attestations menu                                                5. On existing page, click search inbox and type the name of the attestation already written in test case CAM_03_TC_01 and click search button                                                                                6. Click delete image button and  then click delete button                                    7. Verify the display of  messsage 'Attestation successfully deleted' </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A success message of 'Attestation successfully deleted' should be displayed
-</t>
-  </si>
-  <si>
-    <t>The attestation is successfully deleted and the message is displayed that indicates 'Attestation successfully deleted'</t>
-  </si>
-  <si>
-    <t>CAM_03_TC_05</t>
-  </si>
-  <si>
-    <t>The attempt to delete already deleted attestation which was deleted in accordance with the test case CAM_03_TC_04</t>
+    <t>https://test.mersys.io/attestation/list</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">1. An admin user name and password to login to be available
 2. </t>
     </r>
@@ -478,7 +293,6 @@
       <rPr>
         <u/>
         <sz val="12"/>
-        <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
@@ -487,13 +301,84 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> site is launched on a compatible browser
 </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. In the login Panel, enter the username and password then click login button
+2. On left navigation menu, click Human Resources menu   
+3. On left navigation menu, click setup menu                                                          4. On left navigation menu, click Attestations menu                                                5. On existing page, click add button                                                                          6.  Write a name of the attestation in the dialog box and then click save button 7. Verify the display of  messsage 'Attestation successfully created' </t>
+  </si>
+  <si>
+    <t>Url : https://test.mersys.io/      Username: turkeyts  Password : TechnoStudy123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A success message, 'Attestation successfully created' should be displayed on the screen and the attestation should be added to the system
+</t>
+  </si>
+  <si>
+    <t>A success message is displayed on the screen as expected</t>
+  </si>
+  <si>
+    <t>CAM_03_TC_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The attempt to add an attestation with the same name as one written in test case CAM_03_TC_01 should not be possible and thus the page should pop up a warning  screen that indicates "The attestation with name "" already exists" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. In the login Panel, enter the username and password then click login button
+2. On left navigation menu, click Human Resources menu   
+3. On left navigation menu, click setup menu                                                          4. On left navigation menu, click Attestations menu                                                5. On existing page, click add button                                                                          6.  Write the same name of the attestation written in test case CAM_03_TC_01 in the dialog box and then click save button                                  7. Verify the display of  messsage ' The attestation with name "" already exists' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Error message should be displayed on the screen that says 'the attestation with name "" already exists'
+</t>
+  </si>
+  <si>
+    <t>CAM_03_TC_03</t>
+  </si>
+  <si>
+    <t>As an admin user, I should be able to edit the name of the attestation under sections Human Resources&gt;Setup&gt;Attestations on the left navigation menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. In the login Panel, enter the username and password then click login button
+2. On left navigation menu, click Human Resources menu   
+3. On left navigation menu, click setup menu                                                          4. On left navigation menu, click Attestations menu                                                5. On existing page, click search inbox and type the name of the attestation already written in test case CAM_03_TC_01 and click search button                                                                                6. Click edit button and upadate the name of the attestion displayed on the dialog box and click save button                                                                                  7. Verify the display of  messsage 'Attestation successfully updated' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A success message of 'Attestation successfully updated should be displayed on the screen
+</t>
+  </si>
+  <si>
+    <t>The name of the attestation is successfully updated and the message is displayed that indicates 'Attestation successfully updated'</t>
+  </si>
+  <si>
+    <t>CAM_03_TC_04</t>
+  </si>
+  <si>
+    <t>As an admin user, I should be able to delete the already added attestations under sections Human Resources&gt;Setup&gt;Attestations on the left navigation menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. In the login Panel, enter the username and password then click login button
+2. On left navigation menu, click Human Resources menu   
+3. On left navigation menu, click setup menu                                                          4. On left navigation menu, click Attestations menu                                                5. On existing page, click search inbox and type the name of the attestation already written in test case CAM_03_TC_01 and click search button                                                                                6. Click delete image button and  then click delete button                                    7. Verify the display of  messsage 'Attestation successfully deleted' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A success message of 'Attestation successfully deleted' should be displayed
+</t>
+  </si>
+  <si>
+    <t>The attestation is successfully deleted and the message is displayed that indicates 'Attestation successfully deleted'</t>
+  </si>
+  <si>
+    <t>CAM_03_TC_05</t>
+  </si>
+  <si>
+    <t>The attempt to delete already deleted attestation which was deleted in accordance with the test case CAM_03_TC_04</t>
   </si>
   <si>
     <t xml:space="preserve">1. In the login Panel, enter the username and password then click login button
@@ -884,19 +769,12 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">Username: turkeyts Password : TechnoStudy123 Url : </t>
     </r>
     <r>
       <rPr>
         <u/>
         <sz val="12"/>
-        <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
@@ -928,19 +806,12 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
       <t>Username: turkeyts Password : TechnoStudy123 Url :</t>
     </r>
     <r>
       <rPr>
         <u/>
         <sz val="12"/>
-        <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
@@ -949,7 +820,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
@@ -1005,19 +875,12 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">Url : </t>
     </r>
     <r>
       <rPr>
         <u/>
         <sz val="12"/>
-        <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
@@ -1026,7 +889,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
@@ -1484,28 +1346,11 @@
       | successMessage |</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> "A valid username"
+    <t xml:space="preserve"> "A valid username"
 Username : turkeyts
 "A valid password"
 Password : TechnoStudy123
-Url : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://test.mersys.io/</t>
-    </r>
+Url : https://test.mersys.io/</t>
   </si>
   <si>
     <t>A success message should be displayed on the screen as expected</t>
@@ -1702,15 +1547,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1724,9 +1575,7 @@
     </font>
     <font>
       <b/>
-      <u/>
       <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -1745,21 +1594,11 @@
     <font>
       <u/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -1770,35 +1609,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF24292F"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF24292F"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Docs-Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF172B4D"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF1155CC"/>
-      <name val="Docs-Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1807,13 +1620,6 @@
       <color theme="1"/>
       <name val="Docs-Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1825,15 +1631,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1855,8 +1660,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1868,21 +1703,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1902,6 +1722,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -1909,9 +1737,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1925,7 +1752,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1933,45 +1760,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF1155CC"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF1155CC"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF1155CC"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="37">
@@ -2013,25 +1805,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2049,7 +1853,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2061,133 +1979,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2212,17 +2004,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2266,11 +2047,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2290,21 +2097,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2316,15 +2108,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2334,217 +2126,209 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="25">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2808,1933 +2592,1947 @@
   <sheetPr/>
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4380952380952" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="47.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="17.2857142857143" customWidth="1"/>
-    <col min="4" max="4" width="33.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="32.5714285714286" customWidth="1"/>
-    <col min="6" max="6" width="52.4285714285714" customWidth="1"/>
-    <col min="7" max="7" width="33.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="16.552380952381" customWidth="1"/>
+    <col min="2" max="2" width="47.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="17.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="33.1047619047619" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.552380952381" style="1" customWidth="1"/>
+    <col min="6" max="6" width="52.4380952380952" customWidth="1"/>
+    <col min="7" max="7" width="33.4380952380952" style="1" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
-    <col min="9" max="9" width="29.2857142857143" customWidth="1"/>
-    <col min="10" max="10" width="26.1428571428571" customWidth="1"/>
+    <col min="9" max="9" width="29.3333333333333" customWidth="1"/>
+    <col min="10" max="10" width="26.1047619047619" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="173.25" spans="1:10">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="23" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" ht="173.25" spans="1:10">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="23" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" ht="141.75" spans="1:10">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="23" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" ht="157.5" spans="1:10">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>34</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="23" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" ht="157.5" spans="1:10">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>40</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" ht="157.5" hidden="1" spans="1:10">
-      <c r="A7" s="14" t="s">
+      <c r="J6" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" ht="157.5" spans="1:10">
+      <c r="A7" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="12" t="s">
+      <c r="D7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="E7" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="G7" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" ht="189" hidden="1" spans="1:10">
-      <c r="A8" s="14" t="s">
+      <c r="H7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="I7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="J7" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" ht="189" spans="1:10">
+      <c r="A8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="D8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" ht="220.5" hidden="1" spans="1:10">
-      <c r="A9" s="14" t="s">
+      <c r="G8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="I8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" ht="220.5" spans="1:10">
+      <c r="A9" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="D9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="F9" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="G9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" ht="189" hidden="1" spans="1:10">
-      <c r="A10" s="14" t="s">
+      <c r="I9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="J9" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" ht="189" spans="1:10">
+      <c r="A10" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="12" t="s">
+      <c r="D10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" ht="173.25" spans="1:10">
+      <c r="A11" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" ht="173.25" hidden="1" spans="1:10">
-      <c r="A11" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="13" t="s">
+      <c r="F11" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" ht="156" customHeight="1" spans="1:10">
+      <c r="A12" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" ht="145.5" customHeight="1" spans="1:10">
+      <c r="A13" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" ht="115.5" customHeight="1" spans="1:10">
+      <c r="A14" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" ht="123.75" customHeight="1" spans="1:10">
+      <c r="A15" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" ht="156" customHeight="1" spans="1:10">
-      <c r="A12" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="D15" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="E15" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" ht="141.75" spans="1:10">
+      <c r="A16" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D16" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" ht="141.75" spans="1:10">
+      <c r="A17" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" ht="173.25" spans="1:10">
+      <c r="A18" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" ht="173.25" spans="1:10">
+      <c r="A19" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" ht="141.75" spans="1:10">
+      <c r="A20" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" ht="141.75" customHeight="1" spans="1:10">
+      <c r="A21" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="J21" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" ht="141.75" customHeight="1" spans="1:10">
+      <c r="A22" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="J22" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" ht="141.75" customHeight="1" spans="1:10">
+      <c r="A23" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="J23" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" ht="141.75" customHeight="1" spans="1:10">
+      <c r="A24" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="J24" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" ht="141.75" customHeight="1" spans="1:10">
+      <c r="A25" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="I25" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" ht="151.5" customHeight="1" spans="1:10">
+      <c r="A26" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="J26" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" ht="151.5" customHeight="1" spans="1:10">
+      <c r="A27" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="J27" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" ht="151.5" customHeight="1" spans="1:10">
+      <c r="A28" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="J28" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" ht="151.5" customHeight="1" spans="1:10">
+      <c r="A29" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="J29" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" ht="151.5" customHeight="1" spans="1:10">
+      <c r="A30" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="J30" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" ht="126" spans="1:10">
+      <c r="A31" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" ht="145.5" customHeight="1" spans="1:10">
-      <c r="A13" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="F31" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="J31" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" ht="115.5" customHeight="1" spans="1:10">
+      <c r="A32" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J32" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" ht="121.5" customHeight="1" spans="1:10">
+      <c r="A33" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D33" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="J33" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" ht="132" customHeight="1" spans="1:10">
+      <c r="A34" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="J34" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" ht="158.25" customHeight="1" spans="1:10">
+      <c r="A35" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="J35" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" ht="165" customHeight="1" spans="1:10">
+      <c r="A36" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E36" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J13" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" ht="115.5" customHeight="1" spans="1:10">
-      <c r="A14" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="F36" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="J36" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" ht="126.75" customHeight="1" spans="1:10">
+      <c r="A37" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J37" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" ht="147" customHeight="1" spans="1:10">
+      <c r="A38" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" ht="123.75" customHeight="1" spans="1:10">
-      <c r="A15" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="D38" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="J38" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" ht="165.75" customHeight="1" spans="1:10">
+      <c r="A39" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="J39" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" ht="167.25" customHeight="1" spans="1:10">
+      <c r="A40" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" ht="141.75" spans="1:10">
-      <c r="A16" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="D40" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="J40" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" ht="136.5" customHeight="1" spans="1:10">
+      <c r="A41" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="J16" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" ht="141.75" spans="1:10">
-      <c r="A17" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="D41" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="J41" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" ht="136.5" customHeight="1" spans="1:10">
+      <c r="A42" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="J17" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" ht="173.25" spans="1:10">
-      <c r="A18" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="D42" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="J42" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" ht="136.5" customHeight="1" spans="1:10">
+      <c r="A43" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" ht="173.25" spans="1:10">
-      <c r="A19" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="D43" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="J43" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" ht="136.5" customHeight="1" spans="1:10">
+      <c r="A44" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="J44" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" ht="136.5" customHeight="1" spans="1:10">
+      <c r="A45" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="J19" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" ht="141.75" spans="1:10">
-      <c r="A20" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="D45" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="J45" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" ht="136.5" customHeight="1" spans="1:10">
+      <c r="A46" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="J46" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" ht="136.5" customHeight="1" spans="1:10">
+      <c r="A47" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="J20" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" ht="141.75" customHeight="1" spans="1:10">
-      <c r="A21" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="D47" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="J47" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" ht="136.5" customHeight="1" spans="1:10">
+      <c r="A48" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="I21" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="J21" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" ht="141.75" customHeight="1" spans="1:10">
-      <c r="A22" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="D48" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="J48" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" ht="136.5" customHeight="1" spans="1:10">
+      <c r="A49" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="I22" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="J22" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" ht="141.75" customHeight="1" spans="1:10">
-      <c r="A23" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="D49" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="J49" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" ht="136.5" customHeight="1" spans="1:10">
+      <c r="A50" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="I23" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="J23" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" ht="141.75" customHeight="1" spans="1:10">
-      <c r="A24" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C24" s="6" t="s">
+      <c r="D50" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J50" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" ht="283.5" spans="1:10">
+      <c r="A51" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="I24" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="J24" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" ht="141.75" customHeight="1" spans="1:10">
-      <c r="A25" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="D51" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G51" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J51" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" ht="156" customHeight="1" spans="1:10">
+      <c r="A52" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="I25" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="J25" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" ht="151.5" customHeight="1" spans="1:10">
-      <c r="A26" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C26" s="20" t="s">
+      <c r="D52" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="G52" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="J52" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" ht="125.25" customHeight="1" spans="1:10">
+      <c r="A53" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C53" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="J26" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" ht="151.5" customHeight="1" spans="1:10">
-      <c r="A27" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="C27" s="6" t="s">
+      <c r="D53" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="G53" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J53" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" ht="107.25" customHeight="1" spans="1:10">
+      <c r="A54" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="G54" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J54" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" ht="141.75" spans="1:10">
+      <c r="A55" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="J27" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" ht="151.5" customHeight="1" spans="1:10">
-      <c r="A28" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="C28" s="6" t="s">
+      <c r="D55" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="G55" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="J55" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" ht="283.5" spans="1:10">
+      <c r="A56" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C56" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="J28" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" ht="151.5" customHeight="1" spans="1:10">
-      <c r="A29" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="J29" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" ht="151.5" customHeight="1" spans="1:10">
-      <c r="A30" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="J30" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" ht="126" spans="1:10">
-      <c r="A31" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="J31" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" ht="115.5" customHeight="1" spans="1:10">
-      <c r="A32" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="J32" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" ht="121.5" customHeight="1" spans="1:10">
-      <c r="A33" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="J33" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" ht="132" customHeight="1" spans="1:10">
-      <c r="A34" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="J34" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" ht="158.25" customHeight="1" spans="1:10">
-      <c r="A35" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="J35" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" ht="165" customHeight="1" spans="1:10">
-      <c r="A36" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="J36" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" ht="126.75" customHeight="1" spans="1:10">
-      <c r="A37" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="J37" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" ht="147" customHeight="1" spans="1:10">
-      <c r="A38" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="J38" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" ht="165.75" customHeight="1" spans="1:10">
-      <c r="A39" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="J39" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" ht="167.25" customHeight="1" spans="1:10">
-      <c r="A40" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="J40" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" ht="136.5" customHeight="1" spans="1:10">
-      <c r="A41" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="J41" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" ht="136.5" customHeight="1" spans="1:10">
-      <c r="A42" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="J42" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" ht="136.5" customHeight="1" spans="1:10">
-      <c r="A43" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="J43" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" ht="136.5" customHeight="1" spans="1:10">
-      <c r="A44" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="J44" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" ht="136.5" customHeight="1" spans="1:10">
-      <c r="A45" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J45" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" ht="136.5" customHeight="1" spans="1:10">
-      <c r="A46" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="J46" s="26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" ht="136.5" customHeight="1" spans="1:10">
-      <c r="A47" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="J47" s="26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" ht="136.5" customHeight="1" spans="1:10">
-      <c r="A48" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="J48" s="26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" ht="136.5" customHeight="1" spans="1:10">
-      <c r="A49" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="J49" s="26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" ht="136.5" customHeight="1" spans="1:10">
-      <c r="A50" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="J50" s="26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" ht="283.5" spans="1:10">
-      <c r="A51" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="G51" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J51" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" ht="156" customHeight="1" spans="1:10">
-      <c r="A52" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="G52" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="J52" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" ht="125.25" customHeight="1" spans="1:10">
-      <c r="A53" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="G53" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J53" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="54" ht="107.25" customHeight="1" spans="1:10">
-      <c r="A54" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="G54" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J54" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="55" ht="141.75" spans="1:10">
-      <c r="A55" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="G55" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="I55" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="J55" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="56" ht="283.5" spans="1:10">
-      <c r="A56" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="B56" s="6" t="s">
+      <c r="D56" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="10" t="s">
+      <c r="E56" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="F56" s="6" t="s">
         <v>321</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>322</v>
       </c>
       <c r="G56" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H56" s="5" t="s">
+      <c r="H56" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J56" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" ht="132.75" customHeight="1" spans="1:10">
+      <c r="A57" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="I56" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J56" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" ht="132.75" customHeight="1" spans="1:10">
-      <c r="A57" s="4" t="s">
+      <c r="B57" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="C57" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="F57" s="6" t="s">
         <v>325</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>326</v>
       </c>
       <c r="G57" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H57" s="5" t="s">
+      <c r="H57" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="J57" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" ht="171" customHeight="1" spans="1:10">
+      <c r="A58" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="I57" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="J57" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" ht="171" customHeight="1" spans="1:10">
-      <c r="A58" s="4" t="s">
+      <c r="B58" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="C58" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="F58" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>330</v>
       </c>
       <c r="G58" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H58" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J58" s="25" t="s">
+      <c r="H58" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J58" s="23" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="59" ht="80.25" customHeight="1" spans="1:10">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="C59" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="F59" s="6" t="s">
         <v>332</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>333</v>
       </c>
       <c r="G59" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H59" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="I59" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J59" s="25" t="s">
+      <c r="H59" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J59" s="23" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="60" ht="107.25" customHeight="1" spans="1:10">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="C60" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="F60" s="6" t="s">
         <v>335</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>336</v>
       </c>
       <c r="G60" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H60" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="J60" s="25" t="s">
+      <c r="H60" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="J60" s="23" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G1" r:id="rId1" display="&quot;A valid username&quot;&#10;Username : turkeyts&#10;&#10;&quot;A valid password&quot;&#10;Password : TechnoStudy123&#10;&#10;Url : https://test.mersys.io/"/>
+    <hyperlink ref="G1" r:id="rId1" display="Test Data"/>
     <hyperlink ref="D2" r:id="rId2" display="https://test.mersys.io/position-category/list"/>
     <hyperlink ref="G2" r:id="rId1" display="&quot;A valid username&quot;&#10;Username : turkeyts&#10;&#10;&quot;A valid password&quot;&#10;Password : TechnoStudy123&#10;&#10;Url : https://test.mersys.io/"/>
     <hyperlink ref="D3" r:id="rId2" display="https://test.mersys.io/position-category/list"/>
@@ -4804,6 +4602,10 @@
     <hyperlink ref="G59" r:id="rId1" display="&quot;A valid username&quot;&#10;Username : turkeyts&#10;&#10;&quot;A valid password&quot;&#10;Password : TechnoStudy123&#10;&#10;Url : https://test.mersys.io/"/>
     <hyperlink ref="D60" r:id="rId11" display="https://test.mersys.io/nationality/list"/>
     <hyperlink ref="G60" r:id="rId1" display="&quot;A valid username&quot;&#10;Username : turkeyts&#10;&#10;&quot;A valid password&quot;&#10;Password : TechnoStudy123&#10;&#10;Url : https://test.mersys.io/"/>
+    <hyperlink ref="E10" r:id="rId3" display="1. An admin user name and password to login to be available&#10;2. test.mersys.io site is launched on a compatible browser&#10;"/>
+    <hyperlink ref="E9" r:id="rId3" display="1. An admin user name and password to login to be available&#10;2. test.mersys.io site is launched on a compatible browser&#10;"/>
+    <hyperlink ref="E8" r:id="rId3" display="1. An admin user name and password to login to be available&#10;2. test.mersys.io site is launched on a compatible browser&#10;"/>
+    <hyperlink ref="E7" r:id="rId3" display="1. An admin user name and password to login to be available&#10;2. test.mersys.io site is launched on a compatible browser&#10;"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -4820,7 +4622,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4380952380952" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="26" width="9" customWidth="1"/>
   </cols>

--- a/CampusTestCases.xlsx
+++ b/CampusTestCases.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="328">
   <si>
     <t>Test case ID</t>
   </si>
@@ -75,6 +75,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">"A valid username"
 </t>
     </r>
@@ -176,6 +181,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">"A valid username"
 Username : turkeyts
 "A valid password"
@@ -286,6 +296,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. An admin user name and password to login to be available
 2. </t>
     </r>
@@ -769,6 +784,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Username: turkeyts Password : TechnoStudy123 Url : </t>
     </r>
     <r>
@@ -806,6 +826,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>Username: turkeyts Password : TechnoStudy123 Url :</t>
     </r>
     <r>
@@ -875,6 +900,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Url : </t>
     </r>
     <r>
@@ -1118,9 +1148,6 @@
 7.Verify error</t>
   </si>
   <si>
-    <t>Url : https://test.mersys.io/      Username: turkeyts  Password : TechnoStudy124</t>
-  </si>
-  <si>
     <t>" Bank Account with IBAN "****" already exist. " text should appear on the screen</t>
   </si>
   <si>
@@ -1140,9 +1167,6 @@
 6.Verify delete text</t>
   </si>
   <si>
-    <t>Url : https://test.mersys.io/      Username: turkeyts  Password : TechnoStudy125</t>
-  </si>
-  <si>
     <t>" Bank Account successfuly deleted " text should appear on the screen</t>
   </si>
   <si>
@@ -1160,9 +1184,6 @@
 3.Click Setup button Parameters Button and Bank Accounts Button 
 4.Re-enter a deleted data and try to delete it
 5.Verify that the delete key is not visible</t>
-  </si>
-  <si>
-    <t>Url : https://test.mersys.io/      Username: turkeyts  Password : TechnoStudy126</t>
   </si>
   <si>
     <t>" Bank Account successfuly deleted " text should not appear on the screen</t>
@@ -1183,9 +1204,6 @@
 4.Click Edit Button
 5.Fill the Blanks and save
 6.Verify that Element is Visible</t>
-  </si>
-  <si>
-    <t>Url : https://test.mersys.io/      Username: turkeyts  Password : TechnoStudy127</t>
   </si>
   <si>
     <t>" Bank Account successfuly updated " text should not appear on the screen</t>
@@ -1211,9 +1229,6 @@
 </t>
   </si>
   <si>
-    <t>Url : https://test.mersys.io/      Username: turkeyts  Password : TechnoStudy128</t>
-  </si>
-  <si>
     <t>" Grade Level successfully created " text appears on the screen</t>
   </si>
   <si>
@@ -1237,9 +1252,6 @@
 </t>
   </si>
   <si>
-    <t>Url : https://test.mersys.io/      Username: turkeyts  Password : TechnoStudy129</t>
-  </si>
-  <si>
     <t xml:space="preserve"> " The Grade Level with "***" already exists " text should  appears on the screen</t>
   </si>
   <si>
@@ -1259,9 +1271,6 @@
 5.Verify Delete </t>
   </si>
   <si>
-    <t>Url : https://test.mersys.io/      Username: turkeyts  Password : TechnoStudy130</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "text should appear on the screenBank Account successfully deleted" text should appear on the screen</t>
   </si>
   <si>
@@ -1279,9 +1288,6 @@
 3.Click Setup button Parameters Button and Grade Levels Button 
 4.Re-enter a deleted data and try to delete it
 5.Verify that the delete key is not visible</t>
-  </si>
-  <si>
-    <t>Url : https://test.mersys.io/      Username: turkeyts  Password : TechnoStudy131</t>
   </si>
   <si>
     <t>" text should appear on the screenBank Account successfully deleted " text should not appear on the screen</t>
@@ -1302,9 +1308,6 @@
 4.Click Edit Button
 5.Fill the Blanks and save
 6.Verify that Element is Visible</t>
-  </si>
-  <si>
-    <t>Url : https://test.mersys.io/      Username: turkeyts  Password : TechnoStudy132</t>
   </si>
   <si>
     <t>" Grade Level successfuly updated " text should not appear on the screen</t>
@@ -1547,10 +1550,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1622,9 +1625,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1637,8 +1640,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1654,14 +1680,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1679,22 +1706,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1724,7 +1735,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1738,29 +1756,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1799,19 +1802,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1823,19 +1814,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1853,13 +1862,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1871,61 +1880,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1943,7 +1904,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1955,13 +1922,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1973,13 +1970,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2004,6 +2007,56 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2047,21 +2100,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2070,53 +2108,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2126,134 +2129,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2315,9 +2318,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2592,8 +2592,8 @@
   <sheetPr/>
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4380952380952" defaultRowHeight="15" customHeight="1"/>
@@ -2670,7 +2670,7 @@
       <c r="I2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2702,7 +2702,7 @@
       <c r="I3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2734,7 +2734,7 @@
       <c r="I4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2766,7 +2766,7 @@
       <c r="I5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2798,7 +2798,7 @@
       <c r="I6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2830,7 +2830,7 @@
       <c r="I7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2862,7 +2862,7 @@
       <c r="I8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
       <c r="I9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="J9" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2926,7 +2926,7 @@
       <c r="I10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="J10" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2958,7 +2958,7 @@
       <c r="I11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="J11" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2990,7 +2990,7 @@
       <c r="I12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="J12" s="23" t="s">
+      <c r="J12" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3022,7 +3022,7 @@
       <c r="I13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="J13" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3054,7 +3054,7 @@
       <c r="I14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
       <c r="I15" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="J15" s="23" t="s">
+      <c r="J15" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3118,7 +3118,7 @@
       <c r="I16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="J16" s="23" t="s">
+      <c r="J16" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3150,7 +3150,7 @@
       <c r="I17" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="J17" s="23" t="s">
+      <c r="J17" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3182,7 +3182,7 @@
       <c r="I18" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="J18" s="23" t="s">
+      <c r="J18" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3214,7 +3214,7 @@
       <c r="I19" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="J19" s="23" t="s">
+      <c r="J19" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3246,7 +3246,7 @@
       <c r="I20" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="J20" s="23" t="s">
+      <c r="J20" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3275,10 +3275,10 @@
       <c r="H21" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="I21" s="25" t="s">
+      <c r="I21" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="J21" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3307,10 +3307,10 @@
       <c r="H22" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="I22" s="25" t="s">
+      <c r="I22" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="J22" s="23" t="s">
+      <c r="J22" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3339,10 +3339,10 @@
       <c r="H23" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="I23" s="25" t="s">
+      <c r="I23" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="J23" s="23" t="s">
+      <c r="J23" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3371,10 +3371,10 @@
       <c r="H24" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="I24" s="25" t="s">
+      <c r="I24" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="J24" s="23" t="s">
+      <c r="J24" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3403,10 +3403,10 @@
       <c r="H25" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="I25" s="26" t="s">
+      <c r="I25" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="J25" s="23" t="s">
+      <c r="J25" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3438,7 +3438,7 @@
       <c r="I26" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="J26" s="23" t="s">
+      <c r="J26" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3470,7 +3470,7 @@
       <c r="I27" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="J27" s="23" t="s">
+      <c r="J27" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3502,7 +3502,7 @@
       <c r="I28" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J28" s="23" t="s">
+      <c r="J28" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3534,7 +3534,7 @@
       <c r="I29" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="J29" s="23" t="s">
+      <c r="J29" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3566,7 +3566,7 @@
       <c r="I30" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="J30" s="23" t="s">
+      <c r="J30" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3598,7 +3598,7 @@
       <c r="I31" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="J31" s="23" t="s">
+      <c r="J31" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3630,7 +3630,7 @@
       <c r="I32" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="J32" s="23" t="s">
+      <c r="J32" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3662,7 +3662,7 @@
       <c r="I33" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="J33" s="23" t="s">
+      <c r="J33" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3694,7 +3694,7 @@
       <c r="I34" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="J34" s="23" t="s">
+      <c r="J34" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3726,7 +3726,7 @@
       <c r="I35" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="J35" s="23" t="s">
+      <c r="J35" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3758,7 +3758,7 @@
       <c r="I36" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="J36" s="23" t="s">
+      <c r="J36" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3790,7 +3790,7 @@
       <c r="I37" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="J37" s="23" t="s">
+      <c r="J37" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3822,7 +3822,7 @@
       <c r="I38" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="J38" s="23" t="s">
+      <c r="J38" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3854,7 +3854,7 @@
       <c r="I39" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="J39" s="23" t="s">
+      <c r="J39" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       <c r="I40" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="J40" s="23" t="s">
+      <c r="J40" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3918,7 +3918,7 @@
       <c r="I41" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="J41" s="23" t="s">
+      <c r="J41" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3942,24 +3942,24 @@
         <v>241</v>
       </c>
       <c r="G42" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H42" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="I42" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="I42" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="J42" s="23" t="s">
+      <c r="J42" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="43" ht="136.5" customHeight="1" spans="1:10">
       <c r="A43" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>245</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>246</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>12</v>
@@ -3971,27 +3971,27 @@
         <v>236</v>
       </c>
       <c r="F43" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H43" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="I43" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="H43" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="J43" s="23" t="s">
+      <c r="J43" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="44" ht="136.5" customHeight="1" spans="1:10">
       <c r="A44" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>22</v>
@@ -4003,27 +4003,27 @@
         <v>236</v>
       </c>
       <c r="F44" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="I44" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="G44" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="J44" s="23" t="s">
+      <c r="J44" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="45" ht="136.5" customHeight="1" spans="1:10">
       <c r="A45" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>12</v>
@@ -4035,27 +4035,27 @@
         <v>236</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>260</v>
+        <v>48</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="J45" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="J45" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="46" ht="136.5" customHeight="1" spans="1:10">
       <c r="A46" s="5" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>12</v>
@@ -4067,27 +4067,27 @@
         <v>236</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>266</v>
+        <v>48</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="J46" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="J46" s="23" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="47" ht="136.5" customHeight="1" spans="1:10">
       <c r="A47" s="5" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>22</v>
@@ -4099,27 +4099,27 @@
         <v>236</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>272</v>
+        <v>48</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="J47" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="J47" s="23" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="48" ht="136.5" customHeight="1" spans="1:10">
       <c r="A48" s="5" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>12</v>
@@ -4131,27 +4131,27 @@
         <v>236</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>278</v>
+        <v>48</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="J48" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="J48" s="23" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="49" ht="136.5" customHeight="1" spans="1:10">
       <c r="A49" s="5" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>22</v>
@@ -4163,27 +4163,27 @@
         <v>236</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>284</v>
+        <v>48</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="J49" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="J49" s="23" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="50" ht="136.5" customHeight="1" spans="1:10">
       <c r="A50" s="5" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>12</v>
@@ -4195,338 +4195,338 @@
         <v>236</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>290</v>
+        <v>48</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="J50" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="J50" s="23" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="51" ht="283.5" spans="1:10">
       <c r="A51" s="5" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="G51" s="22" t="s">
-        <v>298</v>
+        <v>288</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>289</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="I51" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J51" s="23" t="s">
+      <c r="J51" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="52" ht="156" customHeight="1" spans="1:10">
       <c r="A52" s="5" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D52" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="I52" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="E52" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="G52" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="I52" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="J52" s="23" t="s">
+      <c r="J52" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="53" ht="125.25" customHeight="1" spans="1:10">
       <c r="A53" s="5" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="G53" s="22" t="s">
-        <v>298</v>
+        <v>299</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>289</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="I53" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J53" s="23" t="s">
+      <c r="J53" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="54" ht="107.25" customHeight="1" spans="1:10">
       <c r="A54" s="5" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="G54" s="22" t="s">
-        <v>298</v>
+        <v>302</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>289</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="I54" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J54" s="23" t="s">
+      <c r="J54" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="55" ht="141.75" spans="1:10">
       <c r="A55" s="5" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="G55" s="22" t="s">
-        <v>298</v>
+        <v>305</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>289</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="J55" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="J55" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="56" ht="283.5" spans="1:10">
       <c r="A56" s="5" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="G56" s="9" t="s">
         <v>24</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="I56" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J56" s="23" t="s">
+      <c r="J56" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="57" ht="132.75" customHeight="1" spans="1:10">
       <c r="A57" s="5" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="G57" s="9" t="s">
         <v>24</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="J57" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="J57" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="58" ht="171" customHeight="1" spans="1:10">
       <c r="A58" s="5" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="E58" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="F58" s="6" t="s">
         <v>320</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>329</v>
       </c>
       <c r="G58" s="9" t="s">
         <v>24</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="I58" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J58" s="23" t="s">
+      <c r="J58" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="59" ht="80.25" customHeight="1" spans="1:10">
       <c r="A59" s="5" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="G59" s="9" t="s">
         <v>24</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="I59" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J59" s="23" t="s">
+      <c r="J59" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="60" ht="107.25" customHeight="1" spans="1:10">
       <c r="A60" s="5" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="G60" s="9" t="s">
         <v>24</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="J60" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="J60" s="22" t="s">
         <v>19</v>
       </c>
     </row>
